--- a/urbs_intertemporal_2050/2029.xlsx
+++ b/urbs_intertemporal_2050/2029.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE26FFD-7506-4284-B133-A5C9A246E80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CBA899-58D3-45F2-83E3-344135AFE7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -525,56 +525,14 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <border>
         <top style="thin">
@@ -1291,7 +1249,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,8 +1457,8 @@
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>53560</v>
+      <c r="D6" s="22">
+        <v>999999</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1537,8 +1495,8 @@
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>43590</v>
+      <c r="D7" s="22">
+        <v>999999</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -1575,8 +1533,8 @@
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>188900</v>
+      <c r="D8" s="22">
+        <v>999999</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
@@ -1803,17 +1761,12 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:A13">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="A12:C13 A11 C11">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:B13">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C13">
+  <conditionalFormatting sqref="B11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -2337,37 +2290,20 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B24:C24 A24:A32">
-    <cfRule type="expression" dxfId="7" priority="6">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:C31">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B32:C32">
-    <cfRule type="expression" dxfId="5" priority="4">
+  <conditionalFormatting sqref="A24:E32">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E32">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E32">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
